--- a/thresholds/IGCSE/science-co-ordinated/science-co-ordinated-thresholds.xlsx
+++ b/thresholds/IGCSE/science-co-ordinated/science-co-ordinated-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,77 +985,77 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>240</v>
       </c>
       <c r="C15" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D15" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,32 +1067,32 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,53</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>240</v>
       </c>
       <c r="C16" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D16" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E16" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G16" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1108,36 +1108,36 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BZ 23,43,53</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D17" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E17" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G17" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
         <v>49</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1149,36 +1149,36 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>240</v>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E18" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F18" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1190,32 +1190,32 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>240</v>
       </c>
       <c r="C19" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D19" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E19" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F19" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G19" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1231,36 +1231,36 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FY 12,32,52</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>240</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F20" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G20" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I20" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,33,53</t>
+          <t>FY 12,32,52</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1294,14 +1294,14 @@
         <v>91</v>
       </c>
       <c r="H21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>FZ 13,33,53</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H23" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1411,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G24" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H24" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1436,118 +1436,118 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>240</v>
       </c>
       <c r="C25" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>108</v>
+      </c>
+      <c r="G25" t="n">
         <v>91</v>
       </c>
-      <c r="G25" t="n">
-        <v>76</v>
-      </c>
       <c r="H25" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I25" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C26" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D26" t="n">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H26" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I26" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>240</v>
       </c>
       <c r="C27" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F27" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G27" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H27" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I27" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,36 +1559,36 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>240</v>
       </c>
       <c r="C28" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D28" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F28" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H28" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I28" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1600,36 +1600,36 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>240</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F29" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G29" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1641,36 +1641,36 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>240</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F30" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G30" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I30" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,33,63</t>
+          <t>GX 11,31,61</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1698,20 +1698,20 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G31" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H31" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I31" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1723,118 +1723,118 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>240</v>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G32" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H32" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I32" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>GZ 13,33,63</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>240</v>
       </c>
       <c r="C33" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="G33" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H33" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>240</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F34" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G34" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H34" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I34" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1846,118 +1846,118 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G35" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H35" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I35" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>240</v>
       </c>
       <c r="C36" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G36" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H36" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I36" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>240</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G37" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I37" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1969,32 +1969,32 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>240</v>
       </c>
       <c r="C38" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D38" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E38" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F38" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G38" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I38" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2003,84 +2003,84 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>240</v>
       </c>
       <c r="C39" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G39" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H39" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I39" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>240</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F40" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G40" t="n">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H40" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I40" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2092,32 +2092,32 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,51</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>240</v>
       </c>
       <c r="C41" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E41" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F41" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H41" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I41" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2126,84 +2126,84 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,52</t>
+          <t>GY 12,32,62</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>240</v>
       </c>
       <c r="C42" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>119</v>
+      </c>
+      <c r="G42" t="n">
+        <v>102</v>
+      </c>
+      <c r="H42" t="n">
         <v>85</v>
       </c>
-      <c r="G42" t="n">
-        <v>72</v>
-      </c>
-      <c r="H42" t="n">
-        <v>60</v>
-      </c>
       <c r="I42" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,53</t>
+          <t>BX 21,41,51</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>240</v>
       </c>
       <c r="C43" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D43" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E43" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F43" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G43" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I43" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2215,36 +2215,36 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CX 21,41,61</t>
+          <t>BY 22,42,52</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>240</v>
       </c>
       <c r="C44" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D44" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E44" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H44" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I44" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2256,20 +2256,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CY 22,42,62</t>
+          <t>BZ 23,43,53</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>240</v>
       </c>
       <c r="C45" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D45" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E45" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F45" t="n">
         <v>85</v>
@@ -2281,11 +2281,11 @@
         <v>60</v>
       </c>
       <c r="I45" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2297,36 +2297,36 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,43,63</t>
+          <t>CX 21,41,61</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>240</v>
       </c>
       <c r="C46" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D46" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F46" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H46" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I46" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2338,36 +2338,36 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,33,53</t>
+          <t>CY 22,42,62</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>240</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F47" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H47" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I47" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2379,36 +2379,36 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>GX 11,31,61</t>
+          <t>CZ 23,43,63</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>240</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F48" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H48" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I48" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>GY 12,32,62</t>
+          <t>FZ 13,33,53</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2439,17 +2439,17 @@
         <v>113</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H49" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I49" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2461,39 +2461,121 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>GX 11,31,61</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>240</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>111</v>
+      </c>
+      <c r="G50" t="n">
+        <v>95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>79</v>
+      </c>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>GY 12,32,62</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>240</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>95</v>
+      </c>
+      <c r="H51" t="n">
+        <v>78</v>
+      </c>
+      <c r="I51" t="n">
+        <v>62</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
           <t>GZ 13,33,63</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>240</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="B52" t="n">
+        <v>240</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>114</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G52" t="n">
         <v>97</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H52" t="n">
         <v>80</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I52" t="n">
         <v>64</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
